--- a/Notes/机器/机器功能列表.xlsx
+++ b/Notes/机器/机器功能列表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2087579-FCFD-D742-8BBE-4EF59210C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F623B98-21C2-D642-B44D-752131C1BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="31660" windowHeight="20320" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="12140" yWindow="4160" windowWidth="31660" windowHeight="20320" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>任务</t>
   </si>
@@ -77,6 +77,27 @@
   </si>
   <si>
     <t>加载</t>
+  </si>
+  <si>
+    <t>信念</t>
+  </si>
+  <si>
+    <t>判定</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>想象</t>
+  </si>
+  <si>
+    <t>感觉</t>
+  </si>
+  <si>
+    <t>接收</t>
+  </si>
+  <si>
+    <t>发送</t>
   </si>
 </sst>
 </file>
@@ -449,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA1181-72D8-4B43-80EB-E2AD0B599DB9}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,8 +527,12 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -536,32 +561,40 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B3,LEN($B3)),LEFT(C$2,LEN(C$2)),"
-功能")</f>
-        <v>调度任务
+        <f t="shared" ref="C3:C4" si="0">_xlfn.TEXTJOIN(,,LEFT($B3,LEN($B3)),LEFT(C$2,LEN(C$2)),"
+功能")</f>
+        <v>接收任务
 功能</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:F10" si="0">_xlfn.TEXTJOIN(,,LEFT($B3,LEN($B3)),LEFT(D$2,LEN(D$2)),"
-功能")</f>
-        <v>调度资源
+        <f t="shared" ref="D3:H15" si="1">_xlfn.TEXTJOIN(,,LEFT($B3,LEN($B3)),LEFT(D$2,LEN(D$2)),"
+功能")</f>
+        <v>接收资源
 功能</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>调度知识
+        <f t="shared" si="1"/>
+        <v>接收知识
 功能</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>调度信息
-功能</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
+        <f t="shared" si="1"/>
+        <v>接收信息
+功能</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>接收信念
+功能</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>接收感觉
+功能</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -588,31 +621,38 @@
     <row r="4" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4:C10" si="1">_xlfn.TEXTJOIN(,,LEFT($B4,LEN($B4)),LEFT(C$2,LEN(C$2)),"
-功能")</f>
-        <v>搜索任务
+        <f t="shared" si="0"/>
+        <v>发送任务
 功能</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>搜索资源
+        <f t="shared" si="1"/>
+        <v>发送资源
 功能</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>搜索知识
+        <f t="shared" si="1"/>
+        <v>发送知识
 功能</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>搜索信息
-功能</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
+        <f t="shared" si="1"/>
+        <v>发送信息
+功能</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>发送信念
+功能</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>发送感觉
+功能</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -642,27 +682,41 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(C$2,LEN(C$2)),"
+功能")</f>
         <v>加载任务
 功能</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(D$2,LEN(D$2)),"
+功能")</f>
         <v>加载资源
 功能</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(E$2,LEN(E$2)),"
+功能")</f>
         <v>加载知识
 功能</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(F$2,LEN(F$2)),"
+功能")</f>
         <v>加载信息
 功能</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(G$2,LEN(G$2)),"
+功能")</f>
+        <v>加载信念
+功能</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(H$2,LEN(H$2)),"
+功能")</f>
+        <v>加载感觉
+功能</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -692,27 +746,41 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(C$2,LEN(C$2)),"
+功能")</f>
         <v>存储任务
 功能</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(D$2,LEN(D$2)),"
+功能")</f>
         <v>存储资源
 功能</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(E$2,LEN(E$2)),"
+功能")</f>
         <v>存储知识
 功能</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(F$2,LEN(F$2)),"
+功能")</f>
         <v>存储信息
 功能</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(G$2,LEN(G$2)),"
+功能")</f>
+        <v>存储信念
+功能</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(H$2,LEN(H$2)),"
+功能")</f>
+        <v>存储感觉
+功能</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -737,32 +805,42 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>管理任务
+        <f>_xlfn.TEXTJOIN(,,LEFT($B7,LEN($B7)),LEFT(C$2,LEN(C$2)),"
+功能")</f>
+        <v>调度任务
 功能</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>管理资源
+        <f t="shared" si="1"/>
+        <v>调度资源
 功能</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>管理知识
+        <f t="shared" si="1"/>
+        <v>调度知识
 功能</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>管理信息
-功能</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
+        <f t="shared" si="1"/>
+        <v>调度信息
+功能</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($B7,LEN($B7)),LEFT(G$2,LEN(G$2)),"
+功能")</f>
+        <v>调度信念
+功能</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($B7,LEN($B7)),LEFT(H$2,LEN(H$2)),"
+功能")</f>
+        <v>调度感觉
+功能</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -789,30 +867,39 @@
     <row r="8" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>感知任务
+        <f t="shared" ref="C8:C12" si="2">_xlfn.TEXTJOIN(,,LEFT($B8,LEN($B8)),LEFT(C$2,LEN(C$2)),"
+功能")</f>
+        <v>搜索任务
 功能</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>感知资源
+        <f t="shared" si="1"/>
+        <v>搜索资源
 功能</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>感知知识
+        <f t="shared" si="1"/>
+        <v>搜索知识
 功能</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>感知信息
-功能</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <f t="shared" si="1"/>
+        <v>搜索信息
+功能</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>搜索信念
+功能</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>搜索感觉
+功能</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -839,30 +926,38 @@
     <row r="9" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>运算任务
+        <f t="shared" si="2"/>
+        <v>管理任务
 功能</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>运算资源
+        <f t="shared" si="1"/>
+        <v>管理资源
 功能</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>运算知识
+        <f t="shared" si="1"/>
+        <v>管理知识
 功能</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>运算信息
-功能</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <f t="shared" si="1"/>
+        <v>管理信息
+功能</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>管理信念
+功能</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>管理感觉
+功能</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -889,30 +984,38 @@
     <row r="10" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>统计任务
+        <f t="shared" si="2"/>
+        <v>感知任务
 功能</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>统计资源
+        <f t="shared" si="1"/>
+        <v>感知资源
 功能</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>统计知识
+        <f t="shared" si="1"/>
+        <v>感知知识
 功能</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>统计信息
-功能</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <f t="shared" si="1"/>
+        <v>感知信息
+功能</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>感知信念
+功能</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>感知感觉
+功能</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -938,13 +1041,39 @@
     </row>
     <row r="11" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>运算任务
+功能</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>运算资源
+功能</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>运算知识
+功能</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>运算信息
+功能</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>运算信念
+功能</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>运算感觉
+功能</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -970,13 +1099,39 @@
     </row>
     <row r="12" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>统计任务
+功能</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>统计资源
+功能</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>统计知识
+功能</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>统计信息
+功能</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>统计信念
+功能</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>统计感觉
+功能</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1002,13 +1157,40 @@
     </row>
     <row r="13" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($B13,LEN($B13)),LEFT(C$2,LEN(C$2)),"
+功能")</f>
+        <v>判定任务
+功能</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>判定资源
+功能</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>判定知识
+功能</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>判定信息
+功能</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>判定信念
+功能</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>判定感觉
+功能</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1034,13 +1216,40 @@
     </row>
     <row r="14" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" ref="C14:C15" si="3">_xlfn.TEXTJOIN(,,LEFT($B14,LEN($B14)),LEFT(C$2,LEN(C$2)),"
+功能")</f>
+        <v>计划任务
+功能</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>计划资源
+功能</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>计划知识
+功能</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>计划信息
+功能</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>计划信念
+功能</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>计划感觉
+功能</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1066,13 +1275,39 @@
     </row>
     <row r="15" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>想象任务
+功能</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>想象资源
+功能</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>想象知识
+功能</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>想象信息
+功能</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>想象信念
+功能</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>想象感觉
+功能</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1576,6 +1811,70 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
+    <row r="31" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes/机器/机器功能列表.xlsx
+++ b/Notes/机器/机器功能列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F623B98-21C2-D642-B44D-752131C1BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498EAAA-D5F1-9640-9005-D668B234B7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="4160" windowWidth="31660" windowHeight="20320" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="22240" yWindow="7580" windowWidth="31660" windowHeight="20320" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>任务</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>发送</t>
+  </si>
+  <si>
+    <t>需求</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +536,9 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>

--- a/Notes/机器/机器功能列表.xlsx
+++ b/Notes/机器/机器功能列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498EAAA-D5F1-9640-9005-D668B234B7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C911FD-9354-9745-AF55-0BA724C203A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22240" yWindow="7580" windowWidth="31660" windowHeight="20320" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="3920" yWindow="3160" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>任务</t>
   </si>
@@ -46,9 +46,6 @@
     <t>搜索</t>
   </si>
   <si>
-    <t>存储</t>
-  </si>
-  <si>
     <t>管理</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>统计</t>
   </si>
   <si>
-    <t>加载</t>
-  </si>
-  <si>
     <t>信念</t>
   </si>
   <si>
@@ -94,13 +88,79 @@
     <t>感觉</t>
   </si>
   <si>
-    <t>接收</t>
-  </si>
-  <si>
-    <t>发送</t>
-  </si>
-  <si>
     <t>需求</t>
+  </si>
+  <si>
+    <t>策略</t>
+  </si>
+  <si>
+    <t>运作</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>符号</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>事务</t>
+  </si>
+  <si>
+    <t>机器</t>
+  </si>
+  <si>
+    <t>收发</t>
+  </si>
+  <si>
+    <t>读写</t>
+  </si>
+  <si>
+    <t>币</t>
+  </si>
+  <si>
+    <t>Percept</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>Calculate</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Determine</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Imagine</t>
+  </si>
+  <si>
+    <t>Operate</t>
   </si>
 </sst>
 </file>
@@ -473,21 +533,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA1181-72D8-4B43-80EB-E2AD0B599DB9}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -514,100 +574,90 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-    </row>
-    <row r="3" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C4" si="0">_xlfn.TEXTJOIN(,,LEFT($B3,LEN($B3)),LEFT(C$2,LEN(C$2)),"
-功能")</f>
-        <v>接收任务
-功能</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:H15" si="1">_xlfn.TEXTJOIN(,,LEFT($B3,LEN($B3)),LEFT(D$2,LEN(D$2)),"
-功能")</f>
-        <v>接收资源
-功能</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>接收知识
-功能</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>接收信息
-功能</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>接收信念
-功能</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>接收感觉
-功能</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -622,49 +672,85 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-    </row>
-    <row r="4" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>发送任务
-功能</v>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>发送资源
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>感知任务
 功能</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>发送知识
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
+        <v>感知资源
 功能</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>发送信息
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>感知知识
 功能</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>发送信念
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>感知信息
 功能</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>发送感觉
-功能</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
+        <v>感知信念
+功能</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
+        <v>感知感觉
+功能</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>感知需求
+功能</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>感知策略
+功能</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>感知符号
+功能</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
+        <v>感知标签
+功能</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(N$3,LEN(N$3)),"
+功能")</f>
+        <v>感知事务
+功能</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -680,54 +766,81 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-    </row>
-    <row r="5" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(C$2,LEN(C$2)),"
-功能")</f>
-        <v>加载任务
-功能</v>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(D$2,LEN(D$2)),"
-功能")</f>
-        <v>加载资源
+        <f t="shared" ref="D5:D6" si="0">_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>收发任务
 功能</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(E$2,LEN(E$2)),"
-功能")</f>
-        <v>加载知识
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
+        <v>收发资源
 功能</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(F$2,LEN(F$2)),"
-功能")</f>
-        <v>加载信息
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>收发知识
 功能</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(G$2,LEN(G$2)),"
-功能")</f>
-        <v>加载信念
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>收发信息
 功能</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B5,LEN($B5)),LEFT(H$2,LEN(H$2)),"
-功能")</f>
-        <v>加载感觉
-功能</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
+        <v>收发信念
+功能</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
+        <v>收发感觉
+功能</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>收发需求
+功能</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>收发策略
+功能</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f t="shared" ref="L5:M6" si="1">_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>收发符号
+功能</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>收发标签
+功能</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(N$3,LEN(N$3)),"
+功能")</f>
+        <v>收发事务
+功能</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -744,54 +857,78 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(C$2,LEN(C$2)),"
-功能")</f>
-        <v>存储任务
-功能</v>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(D$2,LEN(D$2)),"
-功能")</f>
-        <v>存储资源
+        <f t="shared" si="0"/>
+        <v>读写任务
 功能</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(E$2,LEN(E$2)),"
-功能")</f>
-        <v>存储知识
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
+        <v>读写资源
 功能</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(F$2,LEN(F$2)),"
-功能")</f>
-        <v>存储信息
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>读写知识
 功能</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(G$2,LEN(G$2)),"
-功能")</f>
-        <v>存储信念
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>读写信息
 功能</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B6,LEN($B6)),LEFT(H$2,LEN(H$2)),"
-功能")</f>
-        <v>存储感觉
-功能</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
+        <v>读写信念
+功能</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
+        <v>读写感觉
+功能</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>读写需求
+功能</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>读写策略
+功能</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>读写符号
+功能</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>读写标签
+功能</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(N$3,LEN(N$3)),"
+功能")</f>
+        <v>读写事务
+功能</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -808,50 +945,72 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
-    </row>
-    <row r="7" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B7,LEN($B7)),LEFT(C$2,LEN(C$2)),"
-功能")</f>
-        <v>调度任务
-功能</v>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>调度资源
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>运作任务
 功能</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>调度知识
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
+        <v>运作资源
 功能</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>调度信息
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>运作知识
 功能</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B7,LEN($B7)),LEFT(G$2,LEN(G$2)),"
-功能")</f>
-        <v>调度信念
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>运作信息
 功能</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B7,LEN($B7)),LEFT(H$2,LEN(H$2)),"
-功能")</f>
-        <v>调度感觉
-功能</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
+        <v>运作信念
+功能</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
+        <v>运作感觉
+功能</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>运作需求
+功能</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>运作策略
+功能</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(N$3,LEN(N$3)),"
+功能")</f>
+        <v>运作事务
+功能</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -868,50 +1027,33 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-    </row>
-    <row r="8" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" ref="C8:C12" si="2">_xlfn.TEXTJOIN(,,LEFT($B8,LEN($B8)),LEFT(C$2,LEN(C$2)),"
-功能")</f>
-        <v>搜索任务
-功能</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>搜索资源
-功能</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>搜索知识
-功能</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>搜索信息
-功能</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>搜索信念
-功能</v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>搜索感觉
-功能</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="2" t="str">
+        <f t="shared" ref="O8" si="2">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(O$3,LEN(O$3)),"
+功能")</f>
+        <v>调度机器
+功能</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -927,48 +1069,80 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-    </row>
-    <row r="9" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>管理任务
-功能</v>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>管理资源
+        <f t="shared" ref="D9:D12" si="3">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>搜索任务
 功能</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>管理知识
+        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
+        <v>搜索资源
 功能</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>管理信息
+        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>搜索知识
 功能</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>管理信念
+        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>搜索信息
 功能</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>管理感觉
-功能</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
+        <v>搜索信念
+功能</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
+        <v>搜索感觉
+功能</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>搜索需求
+功能</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>搜索策略
+功能</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f t="shared" ref="L9:N9" si="4">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>搜索符号
+功能</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>搜索标签
+功能</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>搜索事务
+功能</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -985,45 +1159,24 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-    </row>
-    <row r="10" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>感知任务
-功能</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>感知资源
-功能</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>感知知识
-功能</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>感知信息
-功能</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>感知信念
-功能</v>
-      </c>
-      <c r="H10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>感知感觉
-功能</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1043,45 +1196,59 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-    </row>
-    <row r="11" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>运算任务
-功能</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
         <v>运算资源
 功能</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="F11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
         <v>运算知识
 功能</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="G11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
         <v>运算信息
 功能</v>
       </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="H11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
         <v>运算信念
 功能</v>
       </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="I11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
         <v>运算感觉
 功能</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>运算需求
+功能</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>运算策略
+功能</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1101,50 +1268,90 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-    </row>
-    <row r="12" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>统计任务
 功能</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
         <v>统计资源
 功能</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="F12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
         <v>统计知识
 功能</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="G12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
         <v>统计信息
 功能</v>
       </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="H12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
         <v>统计信念
 功能</v>
       </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="I12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
         <v>统计感觉
 功能</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="J12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>统计需求
+功能</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>统计策略
+功能</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" ref="L12:O12" si="5">_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>统计符号
+功能</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计标签
+功能</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计事务
+功能</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计机器
+功能</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" ref="P12" si="6">_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(P$3,LEN(P$3)),"
+功能")</f>
+        <v>统计币
+功能</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1159,46 +1366,64 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-    </row>
-    <row r="13" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($B13,LEN($B13)),LEFT(C$2,LEN(C$2)),"
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
         <v>判定任务
 功能</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
         <v>判定资源
 功能</v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="F13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
         <v>判定知识
 功能</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="G13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
         <v>判定信息
 功能</v>
       </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="H13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
         <v>判定信念
 功能</v>
       </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="I13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
         <v>判定感觉
 功能</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>判定需求
+功能</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>判定策略
+功能</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1218,51 +1443,90 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-    </row>
-    <row r="14" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f t="shared" ref="C14:C15" si="3">_xlfn.TEXTJOIN(,,LEFT($B14,LEN($B14)),LEFT(C$2,LEN(C$2)),"
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
         <v>计划任务
 功能</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
         <v>计划资源
 功能</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="F14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
         <v>计划知识
 功能</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="G14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
         <v>计划信息
 功能</v>
       </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="H14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
         <v>计划信念
 功能</v>
       </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="I14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
         <v>计划感觉
 功能</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="J14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>计划需求
+功能</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>计划策略
+功能</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f t="shared" ref="L14:P15" si="7">_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>计划符号
+功能</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>计划标签
+功能</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>计划事务
+功能</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>计划机器
+功能</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>计划币
+功能</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1277,50 +1541,89 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-    </row>
-    <row r="15" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
         <v>想象任务
 功能</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
         <v>想象资源
 功能</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="F15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
         <v>想象知识
 功能</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="G15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
         <v>想象信息
 功能</v>
       </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="H15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
         <v>想象信念
 功能</v>
       </c>
-      <c r="H15" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="I15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
         <v>想象感觉
 功能</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="J15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>想象需求
+功能</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>想象策略
+功能</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>想象符号
+功能</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>想象标签
+功能</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>想象事务
+功能</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>想象机器
+功能</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>想象币
+功能</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1335,10 +1638,11 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-    </row>
-    <row r="16" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1367,10 +1671,11 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
-    </row>
-    <row r="17" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1399,10 +1704,11 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1431,10 +1737,11 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-    </row>
-    <row r="19" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1463,10 +1770,11 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1495,10 +1803,11 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1527,10 +1836,11 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1559,10 +1869,11 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1591,10 +1902,11 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1623,10 +1935,11 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1655,10 +1968,11 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1687,10 +2001,11 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1719,10 +2034,11 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-    </row>
-    <row r="28" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1751,10 +2067,11 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-    </row>
-    <row r="29" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1783,10 +2100,11 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-    </row>
-    <row r="30" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1815,10 +2133,11 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
-    </row>
-    <row r="31" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1847,38 +2166,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
-    </row>
-    <row r="32" spans="1:30" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
+      <c r="AE31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes/机器/机器功能列表.xlsx
+++ b/Notes/机器/机器功能列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C911FD-9354-9745-AF55-0BA724C203A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5150B06-2530-A447-98CD-A9B687A42C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="3160" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="1660" yWindow="1700" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>任务</t>
   </si>
@@ -64,9 +64,6 @@
     <t>感知</t>
   </si>
   <si>
-    <t>信息</t>
-  </si>
-  <si>
     <t>运算</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>读写</t>
   </si>
   <si>
-    <t>币</t>
-  </si>
-  <si>
     <t>Percept</t>
   </si>
   <si>
@@ -161,6 +155,60 @@
   </si>
   <si>
     <t>Operate</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>情绪</t>
+  </si>
+  <si>
+    <t>Adjust</t>
+  </si>
+  <si>
+    <t>调节</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>信号</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Affair</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Feel</t>
+  </si>
+  <si>
+    <t>Belief</t>
+  </si>
+  <si>
+    <t>关联</t>
+  </si>
+  <si>
+    <t>Relate</t>
   </si>
 </sst>
 </file>
@@ -533,10 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA1181-72D8-4B43-80EB-E2AD0B599DB9}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,25 +632,47 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -629,36 +702,38 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -679,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -705,7 +780,7 @@
       <c r="G4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(G$3,LEN(G$3)),"
 功能")</f>
-        <v>感知信息
+        <v>感知信号
 功能</v>
       </c>
       <c r="H4" s="2" t="str">
@@ -771,10 +846,10 @@
     <row r="5" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" ref="D5:D6" si="0">_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(D$3,LEN(D$3)),"
@@ -797,7 +872,7 @@
       <c r="G5" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(G$3,LEN(G$3)),"
 功能")</f>
-        <v>收发信息
+        <v>收发信号
 功能</v>
       </c>
       <c r="H5" s="2" t="str">
@@ -861,10 +936,10 @@
     </row>
     <row r="6" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -886,7 +961,7 @@
       <c r="G6" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(G$3,LEN(G$3)),"
 功能")</f>
-        <v>读写信息
+        <v>读写信号
 功能</v>
       </c>
       <c r="H6" s="2" t="str">
@@ -950,10 +1025,10 @@
     <row r="7" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(D$3,LEN(D$3)),"
@@ -961,42 +1036,12 @@
         <v>运作任务
 功能</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>运作资源
-功能</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
-        <v>运作知识
-功能</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>运作信息
-功能</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(H$3,LEN(H$3)),"
-功能")</f>
-        <v>运作信念
-功能</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
-        <v>运作感觉
-功能</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
-        <v>运作需求
-功能</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
@@ -1032,28 +1077,76 @@
     <row r="8" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2" t="str">
-        <f t="shared" ref="O8" si="2">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(O$3,LEN(O$3)),"
-功能")</f>
-        <v>调度机器
-功能</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" ref="D8:D11" si="2">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>搜索任务
+功能</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
+        <v>搜索资源
+功能</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>搜索知识
+功能</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>搜索信号
+功能</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
+        <v>搜索信念
+功能</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
+        <v>搜索感觉
+功能</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>搜索需求
+功能</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>搜索策略
+功能</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" ref="L8:N8" si="3">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>搜索符号
+功能</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>搜索标签
+功能</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>搜索事务
+功能</v>
+      </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1074,78 +1167,30 @@
     <row r="9" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" ref="D9:D12" si="3">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(D$3,LEN(D$3)),"
-功能")</f>
-        <v>搜索任务
-功能</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>搜索资源
-功能</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
-        <v>搜索知识
-功能</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>搜索信息
-功能</v>
-      </c>
-      <c r="H9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(H$3,LEN(H$3)),"
-功能")</f>
-        <v>搜索信念
-功能</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
-        <v>搜索感觉
-功能</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
-        <v>搜索需求
-功能</v>
-      </c>
-      <c r="K9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(K$3,LEN(K$3)),"
-功能")</f>
-        <v>搜索策略
-功能</v>
-      </c>
-      <c r="L9" s="2" t="str">
-        <f t="shared" ref="L9:N9" si="4">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(L$3,LEN(L$3)),"
-功能")</f>
-        <v>搜索符号
-功能</v>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>搜索标签
-功能</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>搜索事务
-功能</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" ref="Q9" si="4">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(Q$3,LEN(Q$3)),"
+功能")</f>
+        <v>管理情绪
+功能</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1164,19 +1209,54 @@
     <row r="10" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="E10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
+        <v>运算资源
+功能</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>运算知识
+功能</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>运算信号
+功能</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
+        <v>运算信念
+功能</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(I$3,LEN(I$3)),"
+功能")</f>
+        <v>运算感觉
+功能</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
+        <v>运算需求
+功能</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(K$3,LEN(K$3)),"
+功能")</f>
+        <v>运算策略
+功能</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1201,59 +1281,85 @@
     <row r="11" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>统计任务
+功能</v>
+      </c>
       <c r="E11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(E$3,LEN(E$3)),"
 功能")</f>
-        <v>运算资源
+        <v>统计资源
 功能</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>运算知识
+        <v>统计知识
 功能</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(G$3,LEN(G$3)),"
 功能")</f>
-        <v>运算信息
+        <v>统计信号
 功能</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>运算信念
+        <v>统计信念
 功能</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>运算感觉
+        <v>统计感觉
 功能</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>运算需求
+        <v>统计需求
 功能</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
-        <v>运算策略
-功能</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+        <v>统计策略
+功能</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" ref="L11:O11" si="5">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>统计符号
+功能</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计标签
+功能</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计事务
+功能</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计机器
+功能</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" ref="P11" si="6">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(P$3,LEN(P$3)),"
+功能")</f>
+        <v>统计货币
+功能</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1273,85 +1379,44 @@
     <row r="12" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>统计任务
-功能</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>统计资源
-功能</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
-        <v>统计知识
-功能</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(G$3,LEN(G$3)),"
 功能")</f>
-        <v>统计信息
+        <v>判定信号
 功能</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>统计信念
-功能</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
-        <v>统计感觉
-功能</v>
-      </c>
+        <v>判定信念
+功能</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>统计需求
+        <v>判定需求
 功能</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
-        <v>统计策略
-功能</v>
-      </c>
-      <c r="L12" s="2" t="str">
-        <f t="shared" ref="L12:O12" si="5">_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(L$3,LEN(L$3)),"
-功能")</f>
-        <v>统计符号
-功能</v>
-      </c>
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>统计标签
-功能</v>
-      </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>统计事务
-功能</v>
-      </c>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>统计机器
-功能</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f t="shared" ref="P12" si="6">_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(P$3,LEN(P$3)),"
-功能")</f>
-        <v>统计币
-功能</v>
-      </c>
+        <v>判定策略
+功能</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1371,7 +1436,7 @@
     <row r="13" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1379,56 +1444,77 @@
       <c r="D13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
-        <v>判定任务
+        <v>计划任务
 功能</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(E$3,LEN(E$3)),"
 功能")</f>
-        <v>判定资源
+        <v>计划资源
 功能</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>判定知识
+        <v>计划知识
 功能</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(G$3,LEN(G$3)),"
 功能")</f>
-        <v>判定信息
+        <v>计划信号
 功能</v>
       </c>
       <c r="H13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>判定信念
+        <v>计划信念
 功能</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>判定感觉
+        <v>计划感觉
 功能</v>
       </c>
       <c r="J13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>判定需求
+        <v>计划需求
 功能</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
-        <v>判定策略
-功能</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+        <v>计划策略
+功能</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f t="shared" ref="L13:Q15" si="7">_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>计划符号
+功能</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>计划标签
+功能</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>计划事务
+功能</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>计划机器
+功能</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>计划货币
+功能</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1448,85 +1534,52 @@
     <row r="14" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(D$3,LEN(D$3)),"
-功能")</f>
-        <v>计划任务
-功能</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>计划资源
-功能</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>计划知识
-功能</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>计划信息
-功能</v>
-      </c>
+        <v>想象知识
+功能</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>计划信念
+        <v>想象信念
 功能</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>计划感觉
-功能</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
-        <v>计划需求
-功能</v>
-      </c>
+        <v>想象感觉
+功能</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
-        <v>计划策略
+        <v>想象策略
 功能</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" ref="L14:P15" si="7">_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(L$3,LEN(L$3)),"
-功能")</f>
-        <v>计划符号
-功能</v>
-      </c>
-      <c r="M14" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>计划标签
-功能</v>
-      </c>
-      <c r="N14" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>计划事务
-功能</v>
-      </c>
+        <v>想象符号
+功能</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>计划机器
-功能</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>计划币
-功能</v>
-      </c>
+        <v>想象机器
+功能</v>
+      </c>
+      <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1546,85 +1599,29 @@
     <row r="15" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(D$3,LEN(D$3)),"
-功能")</f>
-        <v>想象任务
-功能</v>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>想象资源
-功能</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
-        <v>想象知识
-功能</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>想象信息
-功能</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(H$3,LEN(H$3)),"
-功能")</f>
-        <v>想象信念
-功能</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
-        <v>想象感觉
-功能</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
-        <v>想象需求
-功能</v>
-      </c>
-      <c r="K15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(K$3,LEN(K$3)),"
-功能")</f>
-        <v>想象策略
-功能</v>
-      </c>
-      <c r="L15" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>想象符号
-功能</v>
-      </c>
-      <c r="M15" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>想象标签
-功能</v>
-      </c>
-      <c r="N15" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>想象事务
-功能</v>
-      </c>
-      <c r="O15" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>想象机器
-功能</v>
-      </c>
-      <c r="P15" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>想象币
-功能</v>
-      </c>
-      <c r="Q15" s="1"/>
+        <v>调节情绪
+功能</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1642,20 +1639,29 @@
     </row>
     <row r="16" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(O$3,LEN(O$3)),"
+功能")</f>
+        <v>调度机器
+功能</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1675,22 +1681,86 @@
     </row>
     <row r="17" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>关联任务
+功能</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(E$3,LEN(E$3)),"
+功能")</f>
+        <v>关联资源
+功能</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>关联知识
+功能</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" ref="G17:Q17" si="8">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>关联信号
+功能</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联信念
+功能</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联感觉
+功能</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联需求
+功能</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联策略
+功能</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联符号
+功能</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联标签
+功能</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联事务
+功能</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联机器
+功能</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联货币
+功能</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>关联情绪
+功能</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2168,6 +2238,39 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
+    <row r="32" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
